--- a/both.xlsx
+++ b/both.xlsx
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1301,25 +1301,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -1616,25 +1616,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -1679,25 +1679,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2616,25 +2616,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>-1</v>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
@@ -3813,25 +3813,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>2</v>
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -5271,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>2</v>
@@ -5458,13 +5458,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -5575,25 +5575,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>4</v>
@@ -5827,25 +5827,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
         <v>-1</v>
@@ -5890,25 +5890,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>-3</v>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -5962,13 +5962,13 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>3</v>
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -6268,25 +6268,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>3</v>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7276,25 +7276,25 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -7465,25 +7465,25 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
         <v>-1</v>
@@ -7528,25 +7528,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
         <v>4</v>
@@ -7654,25 +7654,25 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>-2</v>
@@ -7843,25 +7843,25 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" t="n">
         <v>-1</v>
@@ -8154,7 +8154,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -8406,25 +8406,25 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>2</v>
@@ -8478,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -8654,25 +8654,25 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>2</v>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -9104,13 +9104,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -9230,13 +9230,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>4</v>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>3</v>
@@ -9599,25 +9599,25 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>-2</v>
@@ -9977,25 +9977,25 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10418,25 +10418,25 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="n">
         <v>2</v>
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>4</v>
@@ -10792,25 +10792,25 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" t="n">
         <v>1</v>
@@ -10855,25 +10855,25 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167" t="n">
         <v>1</v>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>2</v>
@@ -11179,13 +11179,13 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M172" t="n">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
         <v>3</v>
@@ -11240,13 +11240,13 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
@@ -11292,25 +11292,25 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11794,7 +11794,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>2</v>
@@ -11803,13 +11803,13 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>4</v>
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>3</v>
@@ -12668,7 +12668,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12857,25 +12857,25 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N199" t="n">
         <v>0</v>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>2</v>
@@ -12929,13 +12929,13 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13298,25 +13298,25 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
         <v>0</v>
@@ -13359,7 +13359,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>2</v>
@@ -13742,13 +13742,13 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
@@ -14235,25 +14235,25 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>3</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>-4</v>
@@ -14422,25 +14422,25 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
@@ -15298,25 +15298,25 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>1</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238" t="n">
         <v>1</v>
@@ -15424,25 +15424,25 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>1</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240" t="n">
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N240" t="n">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>2</v>
@@ -15620,13 +15620,13 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
         <v>0</v>
@@ -15674,25 +15674,25 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244" t="n">
         <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N244" t="n">
         <v>0</v>
@@ -15737,7 +15737,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15987,25 +15987,25 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="n">
         <v>1</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N249" t="n">
         <v>-1</v>
@@ -16113,7 +16113,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
         <v>1</v>
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>3</v>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16930,25 +16930,25 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="n">
         <v>1</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N264" t="n">
         <v>2</v>
@@ -17430,25 +17430,25 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>1</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272" t="n">
         <v>0</v>
       </c>
       <c r="M272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N272" t="n">
         <v>2</v>
@@ -17556,7 +17556,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H274" t="n">
         <v>2</v>
@@ -17743,25 +17743,25 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H277" t="n">
         <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L277" t="n">
         <v>0</v>
       </c>
       <c r="M277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N277" t="n">
         <v>-1</v>
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>2</v>
@@ -17876,13 +17876,13 @@
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M279" t="n">
         <v>0</v>
@@ -18054,7 +18054,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H282" t="n">
         <v>1</v>
@@ -18556,25 +18556,25 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L290" t="n">
         <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
         <v>1</v>
@@ -18743,25 +18743,25 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="n">
         <v>1</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N293" t="n">
         <v>0</v>
@@ -18930,7 +18930,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H296" t="n">
         <v>1</v>
@@ -19182,7 +19182,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -19245,7 +19245,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H301" t="n">
         <v>2</v>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>2</v>
@@ -19756,13 +19756,13 @@
         <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M309" t="n">
         <v>0</v>
@@ -20125,25 +20125,25 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>1</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L315" t="n">
         <v>0</v>
       </c>
       <c r="M315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N315" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H316" t="n">
         <v>3</v>
@@ -20377,25 +20377,25 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>1</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="n">
         <v>0</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L319" t="n">
         <v>0</v>
       </c>
       <c r="M319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N319" t="n">
         <v>-1</v>
@@ -20564,7 +20564,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="n">
         <v>2</v>
@@ -20573,13 +20573,13 @@
         <v>0</v>
       </c>
       <c r="J322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M322" t="n">
         <v>0</v>
@@ -20690,7 +20690,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="n">
         <v>3</v>
@@ -20753,25 +20753,25 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="n">
         <v>1</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="n">
         <v>0</v>
       </c>
       <c r="K325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>0</v>
       </c>
       <c r="M325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N325" t="n">
         <v>0</v>
@@ -20816,25 +20816,25 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H326" t="n">
         <v>1</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="n">
         <v>0</v>
       </c>
       <c r="K326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>0</v>
       </c>
       <c r="M326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N326" t="n">
         <v>6</v>
@@ -20940,25 +20940,25 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328" t="n">
         <v>1</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="n">
         <v>0</v>
       </c>
       <c r="K328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>0</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328" t="n">
         <v>2</v>
@@ -21001,7 +21001,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H329" t="n">
         <v>1</v>
@@ -21680,7 +21680,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="n">
         <v>3</v>
@@ -21806,25 +21806,25 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H342" t="n">
         <v>1</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="n">
         <v>0</v>
       </c>
       <c r="K342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>0</v>
       </c>
       <c r="M342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N342" t="n">
         <v>-1</v>
@@ -21867,25 +21867,25 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="n">
         <v>1</v>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="n">
         <v>0</v>
       </c>
       <c r="K343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>0</v>
       </c>
       <c r="M343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N343" t="n">
         <v>-1</v>
@@ -22115,7 +22115,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H347" t="n">
         <v>3</v>
@@ -22178,7 +22178,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="n">
         <v>2</v>
@@ -22187,13 +22187,13 @@
         <v>0</v>
       </c>
       <c r="J348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M348" t="n">
         <v>0</v>
@@ -22603,25 +22603,25 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="n">
         <v>1</v>
       </c>
       <c r="I355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="n">
         <v>0</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L355" t="n">
         <v>0</v>
       </c>
       <c r="M355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N355" t="n">
         <v>-3</v>
@@ -22961,7 +22961,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361" t="n">
         <v>2</v>
@@ -22970,13 +22970,13 @@
         <v>0</v>
       </c>
       <c r="J361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M361" t="n">
         <v>0</v>
@@ -23197,25 +23197,25 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="n">
         <v>1</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="n">
         <v>0</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L365" t="n">
         <v>0</v>
       </c>
       <c r="M365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N365" t="n">
         <v>-1</v>
@@ -23256,25 +23256,25 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="n">
         <v>1</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="n">
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>0</v>
       </c>
       <c r="M366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N366" t="n">
         <v>1</v>
@@ -23317,7 +23317,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="n">
         <v>2</v>
@@ -23326,13 +23326,13 @@
         <v>0</v>
       </c>
       <c r="J367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M367" t="n">
         <v>0</v>
@@ -23553,7 +23553,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="n">
         <v>3</v>
@@ -23612,25 +23612,25 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="n">
         <v>1</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="n">
         <v>0</v>
       </c>
       <c r="K372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>0</v>
       </c>
       <c r="M372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372" t="n">
         <v>0</v>
@@ -23730,25 +23730,25 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374" t="n">
         <v>1</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="n">
         <v>0</v>
       </c>
       <c r="K374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>0</v>
       </c>
       <c r="M374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N374" t="n">
         <v>1</v>
@@ -24027,25 +24027,25 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="n">
         <v>1</v>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="n">
         <v>0</v>
       </c>
       <c r="K379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>0</v>
       </c>
       <c r="M379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N379" t="n">
         <v>3</v>
@@ -24086,7 +24086,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -24265,25 +24265,25 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="n">
         <v>1</v>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="n">
         <v>0</v>
       </c>
       <c r="K383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>0</v>
       </c>
       <c r="M383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N383" t="n">
         <v>1</v>
@@ -24324,7 +24324,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="n">
         <v>3</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="n">
         <v>2</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M386" t="n">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="n">
         <v>2</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="J388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M388" t="n">
         <v>0</v>
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H395" t="n">
         <v>2</v>
@@ -24984,13 +24984,13 @@
         <v>0</v>
       </c>
       <c r="J395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M395" t="n">
         <v>0</v>
@@ -25152,25 +25152,25 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H398" t="n">
         <v>1</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="n">
         <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>0</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" t="n">
         <v>0</v>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H419" t="n">
         <v>1</v>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H420" t="n">
         <v>1</v>
@@ -26511,25 +26511,25 @@
         </is>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H421" t="n">
         <v>2</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="n">
         <v>0</v>
       </c>
       <c r="K421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>0</v>
       </c>
       <c r="M421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N421" t="n">
         <v>4</v>
@@ -26629,25 +26629,25 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H423" t="n">
         <v>3</v>
       </c>
       <c r="I423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J423" t="n">
         <v>0</v>
       </c>
       <c r="K423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>0</v>
       </c>
       <c r="M423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N423" t="n">
         <v>-4</v>
@@ -26688,25 +26688,25 @@
         </is>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H424" t="n">
         <v>1</v>
       </c>
       <c r="I424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="n">
         <v>0</v>
       </c>
       <c r="K424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>0</v>
       </c>
       <c r="M424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N424" t="n">
         <v>0</v>
@@ -26806,7 +26806,7 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H426" t="n">
         <v>1</v>
@@ -26865,7 +26865,7 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H427" t="n">
         <v>2</v>
@@ -27514,25 +27514,25 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="n">
         <v>1</v>
       </c>
       <c r="I438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" t="n">
         <v>0</v>
       </c>
       <c r="K438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>0</v>
       </c>
       <c r="M438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N438" t="n">
         <v>3</v>
@@ -27691,7 +27691,7 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="n">
         <v>2</v>
@@ -27700,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M441" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H444" t="n">
         <v>0</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H445" t="n">
         <v>2</v>
@@ -27936,13 +27936,13 @@
         <v>0</v>
       </c>
       <c r="J445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M445" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="G446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H446" t="n">
         <v>0</v>
@@ -28163,25 +28163,25 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="n">
         <v>1</v>
       </c>
       <c r="I449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" t="n">
         <v>0</v>
       </c>
       <c r="K449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>0</v>
       </c>
       <c r="M449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N449" t="n">
         <v>2</v>
@@ -28222,7 +28222,7 @@
         </is>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="n">
         <v>2</v>
@@ -28231,13 +28231,13 @@
         <v>0</v>
       </c>
       <c r="J450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M450" t="n">
         <v>0</v>
@@ -28340,7 +28340,7 @@
         </is>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H452" t="n">
         <v>2</v>
@@ -28349,13 +28349,13 @@
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M452" t="n">
         <v>0</v>
@@ -28517,25 +28517,25 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H455" t="n">
         <v>1</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="n">
         <v>0</v>
       </c>
       <c r="K455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>0</v>
       </c>
       <c r="M455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N455" t="n">
         <v>0</v>
@@ -28576,25 +28576,25 @@
         </is>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H456" t="n">
         <v>1</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="n">
         <v>0</v>
       </c>
       <c r="K456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>0</v>
       </c>
       <c r="M456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N456" t="n">
         <v>2</v>
@@ -28694,7 +28694,7 @@
         </is>
       </c>
       <c r="G458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H458" t="n">
         <v>2</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="J458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M458" t="n">
         <v>0</v>
@@ -28812,25 +28812,25 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460" t="n">
         <v>1</v>
       </c>
       <c r="I460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="n">
         <v>0</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L460" t="n">
         <v>0</v>
       </c>
       <c r="M460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N460" t="n">
         <v>2</v>
@@ -29048,25 +29048,25 @@
         </is>
       </c>
       <c r="G464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H464" t="n">
         <v>1</v>
       </c>
       <c r="I464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="n">
         <v>0</v>
       </c>
       <c r="K464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>0</v>
       </c>
       <c r="M464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N464" t="n">
         <v>0</v>
@@ -29166,7 +29166,7 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="n">
         <v>2</v>
@@ -29175,13 +29175,13 @@
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M466" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H467" t="n">
         <v>2</v>
@@ -29234,13 +29234,13 @@
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M467" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H468" t="n">
         <v>2</v>
@@ -29293,13 +29293,13 @@
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M468" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H472" t="n">
         <v>1</v>
@@ -29529,13 +29529,13 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M472" t="n">
         <v>0</v>
@@ -29579,7 +29579,7 @@
         </is>
       </c>
       <c r="G473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H473" t="n">
         <v>4</v>
@@ -30346,25 +30346,25 @@
         </is>
       </c>
       <c r="G486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H486" t="n">
         <v>1</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="n">
         <v>0</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L486" t="n">
         <v>0</v>
       </c>
       <c r="M486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N486" t="n">
         <v>3</v>
@@ -30818,7 +30818,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="n">
         <v>2</v>
@@ -30827,13 +30827,13 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M494" t="n">
         <v>0</v>
@@ -30995,25 +30995,25 @@
         </is>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H497" t="n">
         <v>1</v>
       </c>
       <c r="I497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J497" t="n">
         <v>0</v>
       </c>
       <c r="K497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L497" t="n">
         <v>0</v>
       </c>
       <c r="M497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N497" t="n">
         <v>2</v>
@@ -31172,25 +31172,25 @@
         </is>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H500" t="n">
         <v>1</v>
       </c>
       <c r="I500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J500" t="n">
         <v>0</v>
       </c>
       <c r="K500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>0</v>
       </c>
       <c r="M500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N500" t="n">
         <v>1</v>
@@ -31526,7 +31526,7 @@
         </is>
       </c>
       <c r="G506" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H506" t="n">
         <v>0</v>
@@ -31762,7 +31762,7 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="n">
         <v>2</v>
@@ -31771,13 +31771,13 @@
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M510" t="n">
         <v>0</v>
@@ -31880,7 +31880,7 @@
         </is>
       </c>
       <c r="G512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H512" t="n">
         <v>2</v>
@@ -31889,13 +31889,13 @@
         <v>0</v>
       </c>
       <c r="J512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M512" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         </is>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522" t="n">
         <v>2</v>
@@ -32479,13 +32479,13 @@
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M522" t="n">
         <v>0</v>
@@ -32765,7 +32765,7 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="n">
         <v>0</v>
@@ -33001,25 +33001,25 @@
         </is>
       </c>
       <c r="G531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H531" t="n">
         <v>1</v>
       </c>
       <c r="I531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J531" t="n">
         <v>0</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L531" t="n">
         <v>0</v>
       </c>
       <c r="M531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N531" t="n">
         <v>1</v>
@@ -33178,7 +33178,7 @@
         </is>
       </c>
       <c r="G534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H534" t="n">
         <v>2</v>
@@ -33187,13 +33187,13 @@
         <v>0</v>
       </c>
       <c r="J534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M534" t="n">
         <v>0</v>
@@ -34771,25 +34771,25 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="n">
         <v>1</v>
       </c>
       <c r="I561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J561" t="n">
         <v>0</v>
       </c>
       <c r="K561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L561" t="n">
         <v>0</v>
       </c>
       <c r="M561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N561" t="n">
         <v>-3</v>

--- a/both.xlsx
+++ b/both.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -584,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>-2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" t="n">
         <v>-0.6</v>
@@ -632,19 +632,19 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>-1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" t="n">
         <v>-0.7</v>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>-1</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>-2</v>
       </c>
       <c r="L7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M7" t="n">
         <v>-1.1</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1016,13 +1016,13 @@
         <v>-2</v>
       </c>
       <c r="J12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>-0.3</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>-2</v>
       </c>
       <c r="L14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M14" t="n">
         <v>-0.6</v>
@@ -1226,19 +1226,19 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>-5</v>
       </c>
       <c r="J16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>-3</v>
       </c>
       <c r="L17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>-0.9</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>-1</v>
       </c>
       <c r="L21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0.7</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1556,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M22" t="n">
         <v>-0.5</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1610,13 +1610,13 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>-5</v>
       </c>
       <c r="L23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>-0.9</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -1664,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K24" t="n">
         <v>-2</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0.8</v>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>-4</v>
       </c>
       <c r="J26" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>-0.2</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -1826,13 +1826,13 @@
         <v>-3</v>
       </c>
       <c r="J27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -1874,19 +1874,19 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>-2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>-1.6</v>
@@ -1928,19 +1928,19 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>-2</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M29" t="n">
         <v>-0.6</v>
@@ -1982,19 +1982,19 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>-3</v>
       </c>
       <c r="L30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2138,19 +2138,19 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2192,19 +2192,19 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M38" t="n">
         <v>-0.8</v>
@@ -2622,19 +2622,19 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
         <v>-4</v>
       </c>
       <c r="J42" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>-1</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2736,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M44" t="n">
         <v>-0.6</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2790,13 +2790,13 @@
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>-2</v>
       </c>
       <c r="L45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M45" t="n">
         <v>0.6</v>
@@ -2997,22 +2997,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>-0.6</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -3168,13 +3168,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>-3</v>
       </c>
       <c r="L52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M52" t="n">
         <v>-0.6</v>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>-4</v>
@@ -3270,19 +3270,19 @@
         <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>-1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0.3</v>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M55" t="n">
         <v>0.7</v>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>-1</v>
       </c>
       <c r="L57" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M57" t="n">
         <v>-1</v>
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>-3</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>-0.9</v>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -3591,22 +3591,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="M60" t="n">
         <v>-1.6</v>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
         <v>4</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3</v>
-      </c>
       <c r="K61" t="n">
         <v>-1</v>
       </c>
       <c r="L61" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M61" t="n">
         <v>-0.5</v>
@@ -3702,19 +3702,19 @@
         <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M62" t="n">
         <v>-0.4</v>
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
@@ -3870,13 +3870,13 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>-1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>1.3</v>
@@ -3918,19 +3918,19 @@
         <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>-1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M66" t="n">
         <v>0.2</v>
@@ -4026,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>-3</v>
       </c>
       <c r="L68" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M68" t="n">
         <v>-0.5</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -4086,13 +4086,13 @@
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
         <v>-2</v>
       </c>
       <c r="L69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M69" t="n">
         <v>0.3</v>
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4302,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4458,19 +4458,19 @@
         <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>-3</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M76" t="n">
         <v>1.3</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4518,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>-1</v>
       </c>
       <c r="L77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>-0.7</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -4626,13 +4626,13 @@
         <v>-2</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K79" t="n">
         <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>1.3</v>
@@ -4726,19 +4726,19 @@
         <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>-1</v>
       </c>
       <c r="J81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5002,13 +5002,13 @@
         <v>-4</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M86" t="n">
         <v>-0.5</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -5056,13 +5056,13 @@
         <v>-1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>-0.1</v>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -5110,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M88" t="n">
         <v>-0.2</v>
@@ -5212,19 +5212,19 @@
         <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>-3</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>3</v>
       </c>
       <c r="L90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0.8</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
@@ -5326,13 +5326,13 @@
         <v>-2</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0.2</v>
@@ -5374,19 +5374,19 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>-1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>-0.7</v>
@@ -5425,22 +5425,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M94" t="n">
         <v>0.4</v>
@@ -5587,22 +5587,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>-2</v>
       </c>
       <c r="L97" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M97" t="n">
         <v>-0.5</v>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -5704,13 +5704,13 @@
         <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
         <v>-4</v>
       </c>
       <c r="L99" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="M99" t="n">
         <v>-0.5</v>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
@@ -5812,13 +5812,13 @@
         <v>-3</v>
       </c>
       <c r="J101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>3</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>1.4</v>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -5866,13 +5866,13 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>-1</v>
       </c>
       <c r="L102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M102" t="n">
         <v>-2.2</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104" t="n">
         <v>-4</v>
       </c>
       <c r="J104" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K104" t="n">
         <v>4</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -6028,13 +6028,13 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>-1</v>
       </c>
       <c r="L105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>-0.8</v>
@@ -6127,22 +6127,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>-4</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -6289,22 +6289,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M110" t="n">
         <v>0.4</v>
@@ -6400,19 +6400,19 @@
         <v>2</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
         <v>-1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>-0.2</v>
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -6460,13 +6460,13 @@
         <v>-1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M113" t="n">
         <v>-2.1</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>6</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
         <v>-6</v>
       </c>
       <c r="L117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M117" t="n">
         <v>-0.4</v>
@@ -6721,22 +6721,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="M118" t="n">
         <v>-2.3</v>
@@ -6832,19 +6832,19 @@
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>-1</v>
       </c>
       <c r="L120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
         <v>-1</v>
@@ -6883,22 +6883,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>-1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M121" t="n">
         <v>0.3</v>
@@ -7044,19 +7044,19 @@
         <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M124" t="n">
         <v>-0.7</v>
@@ -7149,22 +7149,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
         <v>-3</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K126" t="n">
         <v>3</v>
       </c>
       <c r="L126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>-0.7</v>
@@ -7203,22 +7203,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
         <v>-1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K127" t="n">
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
         <v>0.2</v>
@@ -7314,19 +7314,19 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129" t="n">
         <v>0.4</v>
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -7419,10 +7419,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -7469,22 +7469,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>-2</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M132" t="n">
         <v>0.2</v>
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -7532,13 +7532,13 @@
         <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>-3</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M133" t="n">
         <v>-1.2</v>
@@ -7580,19 +7580,19 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
         <v>-1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -7901,22 +7901,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>-3</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K140" t="n">
         <v>3</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M140" t="n">
         <v>0.2</v>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -7964,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M141" t="n">
         <v>-0.1</v>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
@@ -8072,13 +8072,13 @@
         <v>-2</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K143" t="n">
         <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
         <v>1.3</v>
@@ -8120,19 +8120,19 @@
         <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
         <v>-2</v>
       </c>
       <c r="J144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M144" t="n">
         <v>-0.9</v>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>2</v>
@@ -8180,13 +8180,13 @@
         <v>-2</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M145" t="n">
         <v>0.3</v>
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>2</v>
@@ -8234,13 +8234,13 @@
         <v>-3</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
         <v>3</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M146" t="n">
         <v>0.6</v>
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>2</v>
@@ -8288,13 +8288,13 @@
         <v>-2</v>
       </c>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M147" t="n">
         <v>0.5</v>
@@ -8333,22 +8333,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148" t="n">
         <v>-4</v>
       </c>
       <c r="J148" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K148" t="n">
         <v>4</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M148" t="n">
         <v>1.4</v>
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -8396,13 +8396,13 @@
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
         <v>-1</v>
       </c>
       <c r="L149" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M149" t="n">
         <v>0.4</v>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>2</v>
@@ -8558,13 +8558,13 @@
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K152" t="n">
         <v>-1</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="n">
         <v>-0.1</v>
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K154" t="n">
         <v>-3</v>
       </c>
       <c r="L154" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M154" t="n">
         <v>-2.7</v>
@@ -8714,19 +8714,19 @@
         <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
         <v>-2</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
         <v>2</v>
       </c>
       <c r="L155" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
         <v>-0.7</v>
@@ -8768,19 +8768,19 @@
         <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
         <v>-1</v>
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -8828,13 +8828,13 @@
         <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K157" t="n">
         <v>-2</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>2</v>
@@ -8936,13 +8936,13 @@
         <v>-1</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="n">
         <v>0.4</v>
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -9090,19 +9090,19 @@
         <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I162" t="n">
         <v>-4</v>
       </c>
       <c r="J162" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K162" t="n">
         <v>4</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M162" t="n">
         <v>0.8</v>
@@ -9193,7 +9193,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -9202,13 +9202,13 @@
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>-1</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M164" t="n">
         <v>0.1</v>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -9364,13 +9364,13 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
         <v>-1</v>
       </c>
       <c r="L167" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M167" t="n">
         <v>-2.5</v>
@@ -9412,19 +9412,19 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>5</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
         <v>-5</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M168" t="n">
         <v>-0.8</v>
@@ -9517,22 +9517,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M170" t="n">
         <v>-0.4</v>
@@ -9625,22 +9625,22 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
         <v>-2</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K172" t="n">
         <v>2</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M172" t="n">
         <v>0.1</v>
@@ -9677,7 +9677,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>3</v>
@@ -9686,13 +9686,13 @@
         <v>-4</v>
       </c>
       <c r="J173" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K173" t="n">
         <v>4</v>
       </c>
       <c r="L173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M173" t="n">
         <v>0.7</v>
@@ -9786,19 +9786,19 @@
         <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K175" t="n">
         <v>-1</v>
       </c>
       <c r="L175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M175" t="n">
         <v>-0.4</v>
@@ -9837,22 +9837,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M176" t="n">
         <v>-0.1</v>
@@ -9891,7 +9891,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -9900,13 +9900,13 @@
         <v>4</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K177" t="n">
         <v>-4</v>
       </c>
       <c r="L177" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M177" t="n">
         <v>-1.8</v>
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -9954,13 +9954,13 @@
         <v>-4</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
         <v>4</v>
       </c>
       <c r="L178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M178" t="n">
         <v>-0.3</v>
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -10006,13 +10006,13 @@
         <v>-1</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M179" t="n">
         <v>-0.4</v>
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -10162,19 +10162,19 @@
         <v>2</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
         <v>-1</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
       </c>
       <c r="L182" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M182" t="n">
         <v>-0.4</v>
@@ -10213,22 +10213,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I183" t="n">
         <v>-2</v>
       </c>
       <c r="J183" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K183" t="n">
         <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M183" t="n">
         <v>1.3</v>
@@ -10373,22 +10373,22 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M186" t="n">
         <v>-0.3</v>
@@ -10480,19 +10480,19 @@
         <v>2</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
         <v>-2</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M188" t="n">
         <v>-0.1</v>
@@ -10529,7 +10529,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -10538,13 +10538,13 @@
         <v>4</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
         <v>-4</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M189" t="n">
         <v>-0.7</v>
@@ -10586,19 +10586,19 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>-4</v>
       </c>
       <c r="J190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K190" t="n">
         <v>4</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" t="n">
         <v>0.8</v>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -10862,13 +10862,13 @@
         <v>4</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195" t="n">
         <v>-4</v>
       </c>
       <c r="L195" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M195" t="n">
         <v>-2.3</v>
@@ -10907,22 +10907,22 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M196" t="n">
         <v>-2</v>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
@@ -10970,13 +10970,13 @@
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
         <v>-1</v>
       </c>
       <c r="L197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
         <v>-1.9</v>
@@ -11069,7 +11069,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
@@ -11078,13 +11078,13 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
         <v>-0.6</v>
@@ -11126,19 +11126,19 @@
         <v>2</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
         <v>-1</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M200" t="n">
         <v>-2.3</v>
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>2</v>
@@ -11240,13 +11240,13 @@
         <v>-1</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>1</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M202" t="n">
         <v>0.7</v>
@@ -11285,7 +11285,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>1</v>
@@ -11294,13 +11294,13 @@
         <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
         <v>-1</v>
       </c>
       <c r="L203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M203" t="n">
         <v>-0.3</v>
@@ -11393,22 +11393,22 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M205" t="n">
         <v>-0.8</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -11456,13 +11456,13 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M206" t="n">
         <v>-0.4</v>
@@ -11499,10 +11499,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -11556,19 +11556,19 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>-3</v>
       </c>
       <c r="J208" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K208" t="n">
         <v>3</v>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M208" t="n">
         <v>0.5</v>
@@ -11661,22 +11661,22 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K210" t="n">
         <v>-2</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M210" t="n">
         <v>0</v>
@@ -11927,22 +11927,22 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K215" t="n">
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M215" t="n">
         <v>-1.3</v>
@@ -11984,19 +11984,19 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>-2</v>
       </c>
       <c r="J216" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K216" t="n">
         <v>2</v>
       </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216" t="n">
         <v>-0.1</v>
@@ -12038,19 +12038,19 @@
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" t="n">
         <v>-1</v>
       </c>
       <c r="L217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M217" t="n">
         <v>-2.4</v>
@@ -12089,7 +12089,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>3</v>
@@ -12098,13 +12098,13 @@
         <v>-3</v>
       </c>
       <c r="J218" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>3</v>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218" t="n">
         <v>0.5</v>
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
@@ -12152,13 +12152,13 @@
         <v>-1</v>
       </c>
       <c r="J219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" t="n">
         <v>1</v>
       </c>
       <c r="L219" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M219" t="n">
         <v>0</v>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>3</v>
@@ -12258,13 +12258,13 @@
         <v>-4</v>
       </c>
       <c r="J221" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
         <v>4</v>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M221" t="n">
         <v>0.9</v>
@@ -12303,7 +12303,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>1</v>
@@ -12312,13 +12312,13 @@
         <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K222" t="n">
         <v>-3</v>
       </c>
       <c r="L222" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M222" t="n">
         <v>-0.6</v>
@@ -12360,19 +12360,19 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M223" t="n">
         <v>-2.1</v>
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>1</v>
@@ -12418,13 +12418,13 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M224" t="n">
         <v>-0.2</v>
@@ -12463,22 +12463,22 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K225" t="n">
         <v>-1</v>
       </c>
       <c r="L225" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M225" t="n">
         <v>0.1</v>
@@ -12517,7 +12517,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>2</v>
@@ -12526,13 +12526,13 @@
         <v>-1</v>
       </c>
       <c r="J226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K226" t="n">
         <v>1</v>
       </c>
       <c r="L226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M226" t="n">
         <v>0.3</v>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>1</v>
@@ -12580,13 +12580,13 @@
         <v>2</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
         <v>-2</v>
       </c>
       <c r="L227" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M227" t="n">
         <v>-0.4</v>
@@ -12625,7 +12625,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H228" t="n">
         <v>2</v>
@@ -12634,13 +12634,13 @@
         <v>-1</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228" t="n">
         <v>1</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M228" t="n">
         <v>1</v>
@@ -12733,10 +12733,10 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -12785,10 +12785,10 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>6</v>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
@@ -12846,13 +12846,13 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -12889,22 +12889,22 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
         <v>-2</v>
       </c>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K233" t="n">
         <v>2</v>
       </c>
       <c r="L233" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M233" t="n">
         <v>-0.9</v>
@@ -12946,19 +12946,19 @@
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" t="n">
         <v>-2</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M234" t="n">
         <v>-1.5</v>
@@ -13000,19 +13000,19 @@
         <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I235" t="n">
         <v>-3</v>
       </c>
       <c r="J235" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K235" t="n">
         <v>3</v>
       </c>
       <c r="L235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M235" t="n">
         <v>1.2</v>
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>1</v>
@@ -13222,13 +13222,13 @@
         <v>-1</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>1</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M239" t="n">
         <v>0.2</v>
@@ -13321,22 +13321,22 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>4</v>
       </c>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K241" t="n">
         <v>-4</v>
       </c>
       <c r="L241" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M241" t="n">
         <v>0</v>
@@ -13427,7 +13427,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>2</v>
@@ -13436,13 +13436,13 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
       </c>
       <c r="L243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
         <v>0.7</v>
@@ -13535,22 +13535,22 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
       </c>
       <c r="J245" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K245" t="n">
         <v>-2</v>
       </c>
       <c r="L245" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="M245" t="n">
         <v>-2.1</v>
@@ -13646,19 +13646,19 @@
         <v>2</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
       </c>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K247" t="n">
         <v>-2</v>
       </c>
       <c r="L247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M247" t="n">
         <v>-2.3</v>
@@ -13700,19 +13700,19 @@
         <v>2</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248" t="n">
         <v>-1</v>
       </c>
       <c r="L248" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M248" t="n">
         <v>-0.2</v>
@@ -13806,19 +13806,19 @@
         <v>2</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K250" t="n">
         <v>-3</v>
       </c>
       <c r="L250" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M250" t="n">
         <v>-1.7</v>
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251" t="n">
         <v>1</v>
@@ -13866,13 +13866,13 @@
         <v>4</v>
       </c>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="n">
         <v>-4</v>
       </c>
       <c r="L251" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M251" t="n">
         <v>0</v>
@@ -13963,22 +13963,22 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
       </c>
       <c r="J253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K253" t="n">
         <v>-3</v>
       </c>
       <c r="L253" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M253" t="n">
         <v>-1</v>
@@ -14074,19 +14074,19 @@
         <v>2</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
       </c>
       <c r="J255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K255" t="n">
         <v>-5</v>
       </c>
       <c r="L255" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M255" t="n">
         <v>-1.3</v>
@@ -14128,19 +14128,19 @@
         <v>2</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M256" t="n">
         <v>1.1</v>
@@ -14179,22 +14179,22 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>-2</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K257" t="n">
         <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M257" t="n">
         <v>0.4</v>
@@ -14233,22 +14233,22 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I258" t="n">
         <v>-2</v>
       </c>
       <c r="J258" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K258" t="n">
         <v>2</v>
       </c>
       <c r="L258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M258" t="n">
         <v>0.2</v>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>1</v>
@@ -14296,13 +14296,13 @@
         <v>2</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259" t="n">
         <v>-2</v>
       </c>
       <c r="L259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M259" t="n">
         <v>-2.4</v>
@@ -14395,10 +14395,10 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I261" t="n">
         <v>-2</v>
@@ -14452,19 +14452,19 @@
         <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>6</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="n">
         <v>-6</v>
       </c>
       <c r="L262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M262" t="n">
         <v>-2.6</v>
@@ -14503,10 +14503,10 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>1</v>
@@ -14566,13 +14566,13 @@
         <v>2</v>
       </c>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K264" t="n">
         <v>-2</v>
       </c>
       <c r="L264" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M264" t="n">
         <v>0</v>
@@ -14609,10 +14609,10 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>-1</v>
@@ -14663,22 +14663,22 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
       </c>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K266" t="n">
         <v>-3</v>
       </c>
       <c r="L266" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M266" t="n">
         <v>-0.9</v>
@@ -14720,19 +14720,19 @@
         <v>2</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I267" t="n">
         <v>-1</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K267" t="n">
         <v>1</v>
       </c>
       <c r="L267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M267" t="n">
         <v>1</v>
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>1</v>
@@ -14780,13 +14780,13 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
       </c>
       <c r="L268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M268" t="n">
         <v>0.2</v>
@@ -14879,7 +14879,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -14888,13 +14888,13 @@
         <v>1</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="n">
         <v>-1</v>
       </c>
       <c r="L270" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M270" t="n">
         <v>-0.1</v>
@@ -14933,7 +14933,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H271" t="n">
         <v>1</v>
@@ -14942,13 +14942,13 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
       </c>
       <c r="L271" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M271" t="n">
         <v>-0.7</v>
@@ -14988,19 +14988,19 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
         <v>-2</v>
       </c>
       <c r="L272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M272" t="n">
         <v>-0.1</v>
@@ -15039,7 +15039,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>1</v>
@@ -15048,13 +15048,13 @@
         <v>-1</v>
       </c>
       <c r="J273" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K273" t="n">
         <v>1</v>
       </c>
       <c r="L273" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="M273" t="n">
         <v>-0.6</v>
@@ -15147,10 +15147,10 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -15359,22 +15359,22 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M279" t="n">
         <v>-1</v>
@@ -15416,19 +15416,19 @@
         <v>2</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
       </c>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K280" t="n">
         <v>-3</v>
       </c>
       <c r="L280" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M280" t="n">
         <v>-1.8</v>
@@ -15467,22 +15467,22 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>-1</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K281" t="n">
         <v>1</v>
       </c>
       <c r="L281" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M281" t="n">
         <v>0.4</v>
@@ -15519,22 +15519,22 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
       </c>
       <c r="L282" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M282" t="n">
         <v>0.2</v>
@@ -15573,10 +15573,10 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
         <v>-3</v>
@@ -15736,19 +15736,19 @@
         <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I286" t="n">
         <v>-3</v>
       </c>
       <c r="J286" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K286" t="n">
         <v>3</v>
       </c>
       <c r="L286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M286" t="n">
         <v>0.3</v>
@@ -15844,19 +15844,19 @@
         <v>2</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
       </c>
       <c r="J288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K288" t="n">
         <v>-1</v>
       </c>
       <c r="L288" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M288" t="n">
         <v>-0.8</v>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -15958,13 +15958,13 @@
         <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K290" t="n">
         <v>-1</v>
       </c>
       <c r="L290" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M290" t="n">
         <v>-2.4</v>
@@ -16058,19 +16058,19 @@
         <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" t="n">
         <v>0</v>
       </c>
       <c r="L292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M292" t="n">
         <v>-1.5</v>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>1</v>
@@ -16224,13 +16224,13 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295" t="n">
         <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M295" t="n">
         <v>0.1</v>
@@ -16272,19 +16272,19 @@
         <v>4</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
       </c>
       <c r="J296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K296" t="n">
         <v>-2</v>
       </c>
       <c r="L296" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M296" t="n">
         <v>-0.6</v>
@@ -16326,19 +16326,19 @@
         <v>2</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
         <v>-1</v>
       </c>
       <c r="J297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297" t="n">
         <v>1</v>
       </c>
       <c r="L297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M297" t="n">
         <v>0</v>
@@ -16431,10 +16431,10 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -16485,10 +16485,10 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -16539,7 +16539,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H301" t="n">
         <v>2</v>
@@ -16548,13 +16548,13 @@
         <v>-2</v>
       </c>
       <c r="J301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K301" t="n">
         <v>2</v>
       </c>
       <c r="L301" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M301" t="n">
         <v>0.6</v>
@@ -16596,19 +16596,19 @@
         <v>2</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
       </c>
       <c r="J302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K302" t="n">
         <v>-3</v>
       </c>
       <c r="L302" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M302" t="n">
         <v>-1.6</v>
@@ -16648,19 +16648,19 @@
         <v>2</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" t="n">
         <v>-1</v>
       </c>
       <c r="L303" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M303" t="n">
         <v>0.2</v>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>2</v>
@@ -16708,13 +16708,13 @@
         <v>1</v>
       </c>
       <c r="J304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K304" t="n">
         <v>-1</v>
       </c>
       <c r="L304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M304" t="n">
         <v>0.5</v>
@@ -16753,7 +16753,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H305" t="n">
         <v>3</v>
@@ -16762,13 +16762,13 @@
         <v>-1</v>
       </c>
       <c r="J305" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="n">
         <v>1</v>
       </c>
       <c r="L305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
         <v>1</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>1</v>
@@ -16816,13 +16816,13 @@
         <v>1</v>
       </c>
       <c r="J306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K306" t="n">
         <v>-1</v>
       </c>
       <c r="L306" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M306" t="n">
         <v>-0.1</v>
@@ -16861,7 +16861,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>1</v>
@@ -16870,13 +16870,13 @@
         <v>3</v>
       </c>
       <c r="J307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307" t="n">
         <v>-3</v>
       </c>
       <c r="L307" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M307" t="n">
         <v>0.1</v>
@@ -16918,19 +16918,19 @@
         <v>2</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K308" t="n">
         <v>0</v>
       </c>
       <c r="L308" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M308" t="n">
         <v>-0.8</v>
@@ -16969,7 +16969,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>2</v>
@@ -16978,13 +16978,13 @@
         <v>-1</v>
       </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K309" t="n">
         <v>1</v>
       </c>
       <c r="L309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M309" t="n">
         <v>0.4</v>
@@ -17023,22 +17023,22 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
       </c>
       <c r="J310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K310" t="n">
         <v>-1</v>
       </c>
       <c r="L310" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M310" t="n">
         <v>-0.5</v>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H311" t="n">
         <v>2</v>
@@ -17086,13 +17086,13 @@
         <v>4</v>
       </c>
       <c r="J311" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K311" t="n">
         <v>-4</v>
       </c>
       <c r="L311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M311" t="n">
         <v>0.7</v>
@@ -17134,19 +17134,19 @@
         <v>2</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>8</v>
       </c>
       <c r="J312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K312" t="n">
         <v>-8</v>
       </c>
       <c r="L312" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M312" t="n">
         <v>-1.4</v>
@@ -17239,10 +17239,10 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I314" t="n">
         <v>-4</v>
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="n">
         <v>1</v>
@@ -17302,13 +17302,13 @@
         <v>1</v>
       </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K315" t="n">
         <v>-1</v>
       </c>
       <c r="L315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M315" t="n">
         <v>-0.6</v>
@@ -17350,19 +17350,19 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I316" t="n">
         <v>-4</v>
       </c>
       <c r="J316" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K316" t="n">
         <v>4</v>
       </c>
       <c r="L316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M316" t="n">
         <v>-0.6</v>
@@ -17509,7 +17509,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="n">
         <v>1</v>
@@ -17518,13 +17518,13 @@
         <v>-1</v>
       </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="n">
         <v>1</v>
       </c>
       <c r="L319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M319" t="n">
         <v>0</v>
@@ -17564,19 +17564,19 @@
         <v>1</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>-1</v>
       </c>
       <c r="J320" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K320" t="n">
         <v>1</v>
       </c>
       <c r="L320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M320" t="n">
         <v>0.6</v>
@@ -17615,7 +17615,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="n">
         <v>2</v>
@@ -17624,13 +17624,13 @@
         <v>0</v>
       </c>
       <c r="J321" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K321" t="n">
         <v>0</v>
       </c>
       <c r="L321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321" t="n">
         <v>0.1</v>
@@ -17672,19 +17672,19 @@
         <v>1</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
         <v>-2</v>
       </c>
       <c r="J322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K322" t="n">
         <v>2</v>
       </c>
       <c r="L322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M322" t="n">
         <v>0.1</v>
@@ -17777,10 +17777,10 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -17885,10 +17885,10 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
         <v>6</v>
@@ -17940,19 +17940,19 @@
         <v>2</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I327" t="n">
         <v>2</v>
       </c>
       <c r="J327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K327" t="n">
         <v>-2</v>
       </c>
       <c r="L327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M327" t="n">
         <v>0.8</v>
@@ -17991,7 +17991,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H328" t="n">
         <v>1</v>
@@ -18000,13 +18000,13 @@
         <v>2</v>
       </c>
       <c r="J328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
         <v>-2</v>
       </c>
       <c r="L328" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M328" t="n">
         <v>0</v>
@@ -18043,7 +18043,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="n">
         <v>1</v>
@@ -18052,13 +18052,13 @@
         <v>2</v>
       </c>
       <c r="J329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K329" t="n">
         <v>-2</v>
       </c>
       <c r="L329" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M329" t="n">
         <v>0.1</v>
@@ -18098,19 +18098,19 @@
         <v>2</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I330" t="n">
         <v>-4</v>
       </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K330" t="n">
         <v>4</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M330" t="n">
         <v>0.3</v>
@@ -18201,7 +18201,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H332" t="n">
         <v>2</v>
@@ -18210,13 +18210,13 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K332" t="n">
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M332" t="n">
         <v>0.3</v>
@@ -18255,10 +18255,10 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I333" t="n">
         <v>-3</v>
@@ -18467,7 +18467,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="n">
         <v>1</v>
@@ -18476,13 +18476,13 @@
         <v>4</v>
       </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337" t="n">
         <v>-4</v>
       </c>
       <c r="L337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M337" t="n">
         <v>-1.5</v>
@@ -18524,19 +18524,19 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
       <c r="J338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K338" t="n">
         <v>0</v>
       </c>
       <c r="L338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M338" t="n">
         <v>-0.2</v>
@@ -18626,19 +18626,19 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I340" t="n">
         <v>-2</v>
       </c>
       <c r="J340" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K340" t="n">
         <v>2</v>
       </c>
       <c r="L340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M340" t="n">
         <v>-0.2</v>
@@ -18840,19 +18840,19 @@
         <v>3</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I344" t="n">
         <v>-1</v>
       </c>
       <c r="J344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K344" t="n">
         <v>1</v>
       </c>
       <c r="L344" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M344" t="n">
         <v>0.8</v>
@@ -18943,10 +18943,10 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="n">
         <v>-1</v>
@@ -18995,7 +18995,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H347" t="n">
         <v>3</v>
@@ -19004,13 +19004,13 @@
         <v>-2</v>
       </c>
       <c r="J347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K347" t="n">
         <v>2</v>
       </c>
       <c r="L347" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M347" t="n">
         <v>1.5</v>
@@ -19049,22 +19049,22 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="n">
         <v>-1</v>
       </c>
       <c r="J348" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K348" t="n">
         <v>1</v>
       </c>
       <c r="L348" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M348" t="n">
         <v>0</v>
@@ -19151,7 +19151,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="n">
         <v>2</v>
@@ -19160,13 +19160,13 @@
         <v>3</v>
       </c>
       <c r="J350" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K350" t="n">
         <v>-3</v>
       </c>
       <c r="L350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M350" t="n">
         <v>0.1</v>
@@ -19205,22 +19205,22 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
       </c>
       <c r="J351" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K351" t="n">
         <v>-1</v>
       </c>
       <c r="L351" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M351" t="n">
         <v>-0.4</v>
@@ -19257,7 +19257,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H352" t="n">
         <v>1</v>
@@ -19266,13 +19266,13 @@
         <v>1</v>
       </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="n">
         <v>-1</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M352" t="n">
         <v>0</v>
@@ -19312,19 +19312,19 @@
         <v>1</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="n">
         <v>-2</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K353" t="n">
         <v>2</v>
       </c>
       <c r="L353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M353" t="n">
         <v>-0.1</v>
@@ -19414,19 +19414,19 @@
         <v>2</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="n">
         <v>-3</v>
       </c>
       <c r="J355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K355" t="n">
         <v>3</v>
       </c>
       <c r="L355" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M355" t="n">
         <v>0</v>
@@ -19464,19 +19464,19 @@
         <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
       </c>
       <c r="J356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K356" t="n">
         <v>-3</v>
       </c>
       <c r="L356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M356" t="n">
         <v>-0.3</v>
@@ -19515,7 +19515,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
         <v>2</v>
@@ -19524,13 +19524,13 @@
         <v>-1</v>
       </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K357" t="n">
         <v>1</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M357" t="n">
         <v>0</v>
@@ -19615,22 +19615,22 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K359" t="n">
         <v>-4</v>
       </c>
       <c r="L359" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M359" t="n">
         <v>0</v>
@@ -19668,19 +19668,19 @@
         <v>2</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
       </c>
       <c r="J360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K360" t="n">
         <v>-1</v>
       </c>
       <c r="L360" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M360" t="n">
         <v>0</v>
@@ -19765,7 +19765,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="n">
         <v>1</v>
@@ -19774,13 +19774,13 @@
         <v>2</v>
       </c>
       <c r="J362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" t="n">
         <v>-2</v>
       </c>
       <c r="L362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M362" t="n">
         <v>0</v>
@@ -19818,19 +19818,19 @@
         <v>1</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="n">
         <v>-3</v>
       </c>
       <c r="J363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K363" t="n">
         <v>3</v>
       </c>
       <c r="L363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M363" t="n">
         <v>0</v>
@@ -19865,22 +19865,22 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="n">
         <v>-2</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K364" t="n">
         <v>2</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M364" t="n">
         <v>0</v>
@@ -19965,7 +19965,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="n">
         <v>1</v>
@@ -19974,13 +19974,13 @@
         <v>1</v>
       </c>
       <c r="J366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K366" t="n">
         <v>-1</v>
       </c>
       <c r="L366" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M366" t="n">
         <v>0</v>
@@ -20070,19 +20070,19 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
       <c r="J368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K368" t="n">
         <v>0</v>
       </c>
       <c r="L368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M368" t="n">
         <v>0</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="n">
         <v>1</v>
@@ -20176,13 +20176,13 @@
         <v>1</v>
       </c>
       <c r="J370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K370" t="n">
         <v>-1</v>
       </c>
       <c r="L370" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M370" t="n">
         <v>0</v>
@@ -20320,19 +20320,19 @@
         <v>2</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
       <c r="J373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K373" t="n">
         <v>0</v>
       </c>
       <c r="L373" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M373" t="n">
         <v>0</v>
@@ -20417,7 +20417,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H375" t="n">
         <v>1</v>
@@ -20426,13 +20426,13 @@
         <v>2</v>
       </c>
       <c r="J375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K375" t="n">
         <v>-2</v>
       </c>
       <c r="L375" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M375" t="n">
         <v>0</v>
@@ -20470,19 +20470,19 @@
         <v>2</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
       </c>
       <c r="J376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K376" t="n">
         <v>-2</v>
       </c>
       <c r="L376" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M376" t="n">
         <v>0</v>
@@ -20520,19 +20520,19 @@
         <v>2</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
       </c>
       <c r="J377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K377" t="n">
         <v>-3</v>
       </c>
       <c r="L377" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M377" t="n">
         <v>0</v>
@@ -20619,7 +20619,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H379" t="n">
         <v>1</v>
@@ -20628,13 +20628,13 @@
         <v>3</v>
       </c>
       <c r="J379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K379" t="n">
         <v>-3</v>
       </c>
       <c r="L379" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M379" t="n">
         <v>0</v>
@@ -20669,7 +20669,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="n">
         <v>1</v>
@@ -20678,13 +20678,13 @@
         <v>1</v>
       </c>
       <c r="J380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K380" t="n">
         <v>-1</v>
       </c>
       <c r="L380" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M380" t="n">
         <v>0</v>
@@ -20722,19 +20722,19 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
       </c>
       <c r="J381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K381" t="n">
         <v>-2</v>
       </c>
       <c r="L381" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M381" t="n">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="n">
         <v>1</v>
@@ -20780,13 +20780,13 @@
         <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K382" t="n">
         <v>0</v>
       </c>
       <c r="L382" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M382" t="n">
         <v>0</v>
@@ -20871,22 +20871,22 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I384" t="n">
         <v>-4</v>
       </c>
       <c r="J384" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K384" t="n">
         <v>4</v>
       </c>
       <c r="L384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M384" t="n">
         <v>0</v>
@@ -20924,19 +20924,19 @@
         <v>2</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
       <c r="J385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K385" t="n">
         <v>0</v>
       </c>
       <c r="L385" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M385" t="n">
         <v>0</v>
@@ -20974,19 +20974,19 @@
         <v>2</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
       </c>
       <c r="J386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K386" t="n">
         <v>-2</v>
       </c>
       <c r="L386" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M386" t="n">
         <v>0</v>
@@ -21021,22 +21021,22 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
       </c>
       <c r="J387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K387" t="n">
         <v>-3</v>
       </c>
       <c r="L387" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M387" t="n">
         <v>0</v>
@@ -21071,10 +21071,10 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="n">
         <v>-2</v>
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H389" t="n">
         <v>1</v>
@@ -21130,13 +21130,13 @@
         <v>-1</v>
       </c>
       <c r="J389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K389" t="n">
         <v>1</v>
       </c>
       <c r="L389" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M389" t="n">
         <v>0</v>
@@ -21174,19 +21174,19 @@
         <v>3</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K390" t="n">
         <v>0</v>
       </c>
       <c r="L390" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M390" t="n">
         <v>0</v>
@@ -21224,19 +21224,19 @@
         <v>3</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K391" t="n">
         <v>0</v>
       </c>
       <c r="L391" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M391" t="n">
         <v>0.1</v>
@@ -21276,19 +21276,19 @@
         <v>2</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
       <c r="J392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K392" t="n">
         <v>0</v>
       </c>
       <c r="L392" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M392" t="n">
         <v>0</v>
@@ -21326,19 +21326,19 @@
         <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I393" t="n">
         <v>-4</v>
       </c>
       <c r="J393" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K393" t="n">
         <v>4</v>
       </c>
       <c r="L393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M393" t="n">
         <v>0</v>
@@ -21373,7 +21373,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H394" t="n">
         <v>1</v>
@@ -21382,13 +21382,13 @@
         <v>3</v>
       </c>
       <c r="J394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K394" t="n">
         <v>-3</v>
       </c>
       <c r="L394" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M394" t="n">
         <v>0</v>
@@ -21423,22 +21423,22 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="n">
         <v>-2</v>
       </c>
       <c r="J395" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K395" t="n">
         <v>2</v>
       </c>
       <c r="L395" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M395" t="n">
         <v>0</v>
@@ -21473,7 +21473,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396" t="n">
         <v>2</v>
@@ -21482,13 +21482,13 @@
         <v>-1</v>
       </c>
       <c r="J396" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="n">
         <v>1</v>
       </c>
       <c r="L396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M396" t="n">
         <v>0</v>
@@ -21526,19 +21526,19 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I397" t="n">
         <v>-3</v>
       </c>
       <c r="J397" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K397" t="n">
         <v>3</v>
       </c>
       <c r="L397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M397" t="n">
         <v>0</v>
@@ -21623,22 +21623,22 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
       </c>
       <c r="J399" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K399" t="n">
         <v>-1</v>
       </c>
       <c r="L399" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="M399" t="n">
         <v>0</v>
@@ -21673,10 +21673,10 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -21773,22 +21773,22 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
       </c>
       <c r="J402" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K402" t="n">
         <v>-2</v>
       </c>
       <c r="L402" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M402" t="n">
         <v>0</v>
@@ -21823,7 +21823,7 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403" t="n">
         <v>1</v>
@@ -21832,13 +21832,13 @@
         <v>3</v>
       </c>
       <c r="J403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K403" t="n">
         <v>-3</v>
       </c>
       <c r="L403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M403" t="n">
         <v>0</v>
@@ -21873,10 +21873,10 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -22023,22 +22023,22 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I407" t="n">
         <v>-4</v>
       </c>
       <c r="J407" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K407" t="n">
         <v>4</v>
       </c>
       <c r="L407" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M407" t="n">
         <v>0</v>
@@ -22076,19 +22076,19 @@
         <v>1</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
       <c r="J408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K408" t="n">
         <v>0</v>
       </c>
       <c r="L408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M408" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H410" t="n">
         <v>2</v>
@@ -22182,13 +22182,13 @@
         <v>-3</v>
       </c>
       <c r="J410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K410" t="n">
         <v>3</v>
       </c>
       <c r="L410" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M410" t="n">
         <v>0</v>
@@ -22226,19 +22226,19 @@
         <v>2</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="n">
         <v>-1</v>
       </c>
       <c r="J411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K411" t="n">
         <v>1</v>
       </c>
       <c r="L411" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M411" t="n">
         <v>0</v>
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H417" t="n">
         <v>1</v>
@@ -22534,13 +22534,13 @@
         <v>2</v>
       </c>
       <c r="J417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K417" t="n">
         <v>-2</v>
       </c>
       <c r="L417" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M417" t="n">
         <v>0</v>
@@ -22575,10 +22575,10 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -22728,19 +22728,19 @@
         <v>3</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
       </c>
       <c r="J421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K421" t="n">
         <v>-4</v>
       </c>
       <c r="L421" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M421" t="n">
         <v>0</v>
@@ -22775,10 +22775,10 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="n">
         <v>-2</v>
@@ -22825,10 +22825,10 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I423" t="n">
         <v>-4</v>
@@ -23078,19 +23078,19 @@
         <v>3</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
       <c r="J428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K428" t="n">
         <v>0</v>
       </c>
       <c r="L428" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M428" t="n">
         <v>0</v>
@@ -23178,19 +23178,19 @@
         <v>2</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
       </c>
       <c r="J430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K430" t="n">
         <v>-1</v>
       </c>
       <c r="L430" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M430" t="n">
         <v>0</v>
@@ -23228,19 +23228,19 @@
         <v>2</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="n">
         <v>-2</v>
       </c>
       <c r="J431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K431" t="n">
         <v>2</v>
       </c>
       <c r="L431" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M431" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="n">
         <v>-2</v>
@@ -23475,7 +23475,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H436" t="n">
         <v>1</v>
@@ -23484,13 +23484,13 @@
         <v>7</v>
       </c>
       <c r="J436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K436" t="n">
         <v>-7</v>
       </c>
       <c r="L436" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M436" t="n">
         <v>0</v>
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H437" t="n">
         <v>1</v>
@@ -23534,13 +23534,13 @@
         <v>2</v>
       </c>
       <c r="J437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K437" t="n">
         <v>-2</v>
       </c>
       <c r="L437" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M437" t="n">
         <v>0</v>
@@ -23575,7 +23575,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="n">
         <v>1</v>
@@ -23584,13 +23584,13 @@
         <v>3</v>
       </c>
       <c r="J438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K438" t="n">
         <v>-3</v>
       </c>
       <c r="L438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M438" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" t="n">
         <v>1</v>
@@ -23634,13 +23634,13 @@
         <v>3</v>
       </c>
       <c r="J439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K439" t="n">
         <v>-3</v>
       </c>
       <c r="L439" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M439" t="n">
         <v>0</v>
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H440" t="n">
         <v>1</v>
@@ -23684,13 +23684,13 @@
         <v>1</v>
       </c>
       <c r="J440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K440" t="n">
         <v>-1</v>
       </c>
       <c r="L440" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M440" t="n">
         <v>0</v>
@@ -23728,19 +23728,19 @@
         <v>2</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K441" t="n">
         <v>0</v>
       </c>
       <c r="L441" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M441" t="n">
         <v>0</v>
@@ -23778,19 +23778,19 @@
         <v>2</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I442" t="n">
         <v>-2</v>
       </c>
       <c r="J442" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K442" t="n">
         <v>2</v>
       </c>
       <c r="L442" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M442" t="n">
         <v>0</v>
@@ -23828,19 +23828,19 @@
         <v>2</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
       </c>
       <c r="J443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K443" t="n">
         <v>-1</v>
       </c>
       <c r="L443" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M443" t="n">
         <v>0</v>
@@ -23875,10 +23875,10 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -24028,19 +24028,19 @@
         <v>2</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I447" t="n">
         <v>-2</v>
       </c>
       <c r="J447" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K447" t="n">
         <v>2</v>
       </c>
       <c r="L447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M447" t="n">
         <v>0</v>
@@ -24078,19 +24078,19 @@
         <v>1</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>2</v>
       </c>
       <c r="J448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K448" t="n">
         <v>-2</v>
       </c>
       <c r="L448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M448" t="n">
         <v>0</v>
@@ -24228,19 +24228,19 @@
         <v>2</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="n">
         <v>-1</v>
       </c>
       <c r="J451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K451" t="n">
         <v>1</v>
       </c>
       <c r="L451" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M451" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H454" t="n">
         <v>1</v>
@@ -24384,13 +24384,13 @@
         <v>2</v>
       </c>
       <c r="J454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K454" t="n">
         <v>-2</v>
       </c>
       <c r="L454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M454" t="n">
         <v>0</v>
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="n">
         <v>1</v>
@@ -24434,13 +24434,13 @@
         <v>0</v>
       </c>
       <c r="J455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K455" t="n">
         <v>0</v>
       </c>
       <c r="L455" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M455" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>2</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="n">
         <v>-2</v>
       </c>
       <c r="J458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K458" t="n">
         <v>2</v>
       </c>
       <c r="L458" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M458" t="n">
         <v>0</v>
@@ -24625,22 +24625,22 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
       </c>
       <c r="J459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K459" t="n">
         <v>-1</v>
       </c>
       <c r="L459" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M459" t="n">
         <v>0</v>
@@ -24675,7 +24675,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460" t="n">
         <v>1</v>
@@ -24684,13 +24684,13 @@
         <v>2</v>
       </c>
       <c r="J460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K460" t="n">
         <v>-2</v>
       </c>
       <c r="L460" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M460" t="n">
         <v>0</v>
@@ -24825,22 +24825,22 @@
         </is>
       </c>
       <c r="G463" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
       <c r="J463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K463" t="n">
         <v>0</v>
       </c>
       <c r="L463" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M463" t="n">
         <v>0</v>
@@ -24975,10 +24975,10 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="n">
         <v>-2</v>
@@ -25028,19 +25028,19 @@
         <v>1</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
       </c>
       <c r="J467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K467" t="n">
         <v>-2</v>
       </c>
       <c r="L467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M467" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="n">
         <v>-2</v>
       </c>
       <c r="J469" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K469" t="n">
         <v>2</v>
       </c>
       <c r="L469" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M469" t="n">
         <v>0</v>
@@ -25228,19 +25228,19 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="n">
         <v>-2</v>
       </c>
       <c r="J471" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K471" t="n">
         <v>2</v>
       </c>
       <c r="L471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M471" t="n">
         <v>0</v>
@@ -25275,7 +25275,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H472" t="n">
         <v>1</v>
@@ -25284,13 +25284,13 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K472" t="n">
         <v>0</v>
       </c>
       <c r="L472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M472" t="n">
         <v>0</v>
@@ -25328,19 +25328,19 @@
         <v>1</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I473" t="n">
         <v>-2</v>
       </c>
       <c r="J473" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K473" t="n">
         <v>2</v>
       </c>
       <c r="L473" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M473" t="n">
         <v>0</v>
@@ -25378,19 +25378,19 @@
         <v>1</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I474" t="n">
         <v>-2</v>
       </c>
       <c r="J474" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K474" t="n">
         <v>2</v>
       </c>
       <c r="L474" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M474" t="n">
         <v>0</v>
@@ -25478,19 +25478,19 @@
         <v>1</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K476" t="n">
         <v>0</v>
       </c>
       <c r="L476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M476" t="n">
         <v>0</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
       <c r="J479" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K479" t="n">
         <v>0</v>
       </c>
       <c r="L479" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M479" t="n">
         <v>0</v>
@@ -25775,22 +25775,22 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
       </c>
       <c r="J482" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K482" t="n">
         <v>-1</v>
       </c>
       <c r="L482" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M482" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>1</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
       </c>
       <c r="J483" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K483" t="n">
         <v>-2</v>
       </c>
       <c r="L483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M483" t="n">
         <v>0</v>
@@ -25875,10 +25875,10 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -25975,22 +25975,22 @@
         </is>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>3</v>
       </c>
       <c r="J486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K486" t="n">
         <v>-3</v>
       </c>
       <c r="L486" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M486" t="n">
         <v>0</v>
@@ -26128,19 +26128,19 @@
         <v>1</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K489" t="n">
         <v>0</v>
       </c>
       <c r="L489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M489" t="n">
         <v>0</v>
@@ -26225,22 +26225,22 @@
         </is>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
       <c r="J491" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K491" t="n">
         <v>0</v>
       </c>
       <c r="L491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M491" t="n">
         <v>0</v>
@@ -26275,7 +26275,7 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H492" t="n">
         <v>1</v>
@@ -26284,13 +26284,13 @@
         <v>3</v>
       </c>
       <c r="J492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K492" t="n">
         <v>-3</v>
       </c>
       <c r="L492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M492" t="n">
         <v>0</v>
@@ -26325,10 +26325,10 @@
         </is>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -26375,22 +26375,22 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
       </c>
       <c r="J494" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K494" t="n">
         <v>-3</v>
       </c>
       <c r="L494" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M494" t="n">
         <v>0</v>
@@ -26475,10 +26475,10 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -26575,7 +26575,7 @@
         </is>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="n">
         <v>1</v>
@@ -26584,13 +26584,13 @@
         <v>0</v>
       </c>
       <c r="J498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K498" t="n">
         <v>0</v>
       </c>
       <c r="L498" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M498" t="n">
         <v>0</v>
@@ -26675,10 +26675,10 @@
         </is>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -26725,7 +26725,7 @@
         </is>
       </c>
       <c r="G501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H501" t="n">
         <v>1</v>
@@ -26734,13 +26734,13 @@
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K501" t="n">
         <v>0</v>
       </c>
       <c r="L501" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M501" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="G505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H505" t="n">
         <v>1</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K505" t="n">
         <v>0</v>
       </c>
       <c r="L505" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M505" t="n">
         <v>0</v>
@@ -26975,22 +26975,22 @@
         </is>
       </c>
       <c r="G506" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
       </c>
       <c r="J506" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K506" t="n">
         <v>-1</v>
       </c>
       <c r="L506" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="M506" t="n">
         <v>0</v>
@@ -27025,22 +27025,22 @@
         </is>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
       </c>
       <c r="J507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K507" t="n">
         <v>-1</v>
       </c>
       <c r="L507" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M507" t="n">
         <v>0</v>
@@ -27075,22 +27075,22 @@
         </is>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="n">
         <v>-1</v>
       </c>
       <c r="J508" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K508" t="n">
         <v>1</v>
       </c>
       <c r="L508" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M508" t="n">
         <v>0</v>
@@ -27125,7 +27125,7 @@
         </is>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H509" t="n">
         <v>1</v>
@@ -27134,13 +27134,13 @@
         <v>3</v>
       </c>
       <c r="J509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K509" t="n">
         <v>-3</v>
       </c>
       <c r="L509" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M509" t="n">
         <v>0</v>
@@ -27175,22 +27175,22 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K510" t="n">
         <v>0</v>
       </c>
       <c r="L510" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M510" t="n">
         <v>0</v>
@@ -27228,19 +27228,19 @@
         <v>2</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>3</v>
       </c>
       <c r="J511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K511" t="n">
         <v>-3</v>
       </c>
       <c r="L511" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M511" t="n">
         <v>0</v>
@@ -27275,22 +27275,22 @@
         </is>
       </c>
       <c r="G512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="n">
         <v>-1</v>
       </c>
       <c r="J512" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K512" t="n">
         <v>1</v>
       </c>
       <c r="L512" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M512" t="n">
         <v>0</v>
@@ -27325,10 +27325,10 @@
         </is>
       </c>
       <c r="G513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I513" t="n">
         <v>-2</v>
@@ -27378,19 +27378,19 @@
         <v>1</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
       </c>
       <c r="J514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K514" t="n">
         <v>-1</v>
       </c>
       <c r="L514" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M514" t="n">
         <v>0</v>
@@ -27528,19 +27528,19 @@
         <v>1</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
       <c r="J517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K517" t="n">
         <v>0</v>
       </c>
       <c r="L517" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M517" t="n">
         <v>0</v>
@@ -27575,10 +27575,10 @@
         </is>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="n">
         <v>-1</v>
@@ -27628,19 +27628,19 @@
         <v>2</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>6</v>
       </c>
       <c r="J519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K519" t="n">
         <v>-6</v>
       </c>
       <c r="L519" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M519" t="n">
         <v>0</v>
@@ -27678,19 +27678,19 @@
         <v>1</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
       <c r="J520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K520" t="n">
         <v>0</v>
       </c>
       <c r="L520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M520" t="n">
         <v>0</v>
@@ -27775,22 +27775,22 @@
         </is>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="n">
         <v>-3</v>
       </c>
       <c r="J522" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K522" t="n">
         <v>3</v>
       </c>
       <c r="L522" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M522" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         </is>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K523" t="n">
         <v>0</v>
       </c>
       <c r="L523" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M523" t="n">
         <v>0</v>
@@ -27878,19 +27878,19 @@
         <v>2</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>-2</v>
       </c>
       <c r="J524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K524" t="n">
         <v>2</v>
       </c>
       <c r="L524" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M524" t="n">
         <v>0</v>
@@ -27975,10 +27975,10 @@
         </is>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -28025,10 +28025,10 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>2</v>
@@ -28078,19 +28078,19 @@
         <v>2</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
       </c>
       <c r="J528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K528" t="n">
         <v>-1</v>
       </c>
       <c r="L528" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M528" t="n">
         <v>0</v>
@@ -28125,22 +28125,22 @@
         </is>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
       </c>
       <c r="J529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K529" t="n">
         <v>-1</v>
       </c>
       <c r="L529" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M529" t="n">
         <v>0</v>
@@ -28278,19 +28278,19 @@
         <v>1</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>3</v>
       </c>
       <c r="J532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K532" t="n">
         <v>-3</v>
       </c>
       <c r="L532" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M532" t="n">
         <v>0</v>
@@ -28378,19 +28378,19 @@
         <v>2</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
       <c r="J534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K534" t="n">
         <v>0</v>
       </c>
       <c r="L534" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M534" t="n">
         <v>0</v>
@@ -28425,7 +28425,7 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H535" t="n">
         <v>1</v>
@@ -28434,13 +28434,13 @@
         <v>0</v>
       </c>
       <c r="J535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K535" t="n">
         <v>0</v>
       </c>
       <c r="L535" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M535" t="n">
         <v>0</v>
@@ -28478,19 +28478,19 @@
         <v>1</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="n">
         <v>-1</v>
       </c>
       <c r="J536" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K536" t="n">
         <v>1</v>
       </c>
       <c r="L536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M536" t="n">
         <v>0</v>
@@ -28528,19 +28528,19 @@
         <v>1</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="n">
         <v>2</v>
       </c>
       <c r="J537" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K537" t="n">
         <v>-2</v>
       </c>
       <c r="L537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M537" t="n">
         <v>0</v>
@@ -28575,22 +28575,22 @@
         </is>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="n">
         <v>-3</v>
       </c>
       <c r="J538" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K538" t="n">
         <v>3</v>
       </c>
       <c r="L538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M538" t="n">
         <v>0</v>
@@ -28628,19 +28628,19 @@
         <v>1</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="n">
         <v>-3</v>
       </c>
       <c r="J539" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K539" t="n">
         <v>3</v>
       </c>
       <c r="L539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M539" t="n">
         <v>0</v>
@@ -28675,22 +28675,22 @@
         </is>
       </c>
       <c r="G540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
       <c r="J540" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K540" t="n">
         <v>0</v>
       </c>
       <c r="L540" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M540" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         </is>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="n">
         <v>2</v>
@@ -28775,10 +28775,10 @@
         </is>
       </c>
       <c r="G542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="n">
         <v>-1</v>
@@ -28878,19 +28878,19 @@
         <v>1</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I544" t="n">
         <v>-3</v>
       </c>
       <c r="J544" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K544" t="n">
         <v>3</v>
       </c>
       <c r="L544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M544" t="n">
         <v>0</v>
@@ -28975,22 +28975,22 @@
         </is>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="n">
         <v>-2</v>
       </c>
       <c r="J546" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K546" t="n">
         <v>2</v>
       </c>
       <c r="L546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M546" t="n">
         <v>0</v>
@@ -29028,19 +29028,19 @@
         <v>1</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I547" t="n">
         <v>-2</v>
       </c>
       <c r="J547" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K547" t="n">
         <v>2</v>
       </c>
       <c r="L547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M547" t="n">
         <v>0</v>
@@ -29078,19 +29078,19 @@
         <v>2</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
       <c r="J548" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K548" t="n">
         <v>0</v>
       </c>
       <c r="L548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M548" t="n">
         <v>0</v>
@@ -29175,7 +29175,7 @@
         </is>
       </c>
       <c r="G550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H550" t="n">
         <v>1</v>
@@ -29184,13 +29184,13 @@
         <v>2</v>
       </c>
       <c r="J550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K550" t="n">
         <v>-2</v>
       </c>
       <c r="L550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M550" t="n">
         <v>0</v>
@@ -29278,19 +29278,19 @@
         <v>1</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="n">
         <v>-1</v>
       </c>
       <c r="J552" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K552" t="n">
         <v>1</v>
       </c>
       <c r="L552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M552" t="n">
         <v>0</v>
@@ -29375,7 +29375,7 @@
         </is>
       </c>
       <c r="G554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H554" t="n">
         <v>1</v>
@@ -29384,13 +29384,13 @@
         <v>2</v>
       </c>
       <c r="J554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K554" t="n">
         <v>-2</v>
       </c>
       <c r="L554" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M554" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         </is>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H558" t="n">
         <v>1</v>
@@ -29584,13 +29584,13 @@
         <v>-1</v>
       </c>
       <c r="J558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K558" t="n">
         <v>1</v>
       </c>
       <c r="L558" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M558" t="n">
         <v>0</v>
@@ -29625,7 +29625,7 @@
         </is>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H559" t="n">
         <v>1</v>
@@ -29634,13 +29634,13 @@
         <v>2</v>
       </c>
       <c r="J559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K559" t="n">
         <v>-2</v>
       </c>
       <c r="L559" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M559" t="n">
         <v>0</v>
@@ -29725,7 +29725,7 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="n">
         <v>1</v>
@@ -29734,13 +29734,13 @@
         <v>-3</v>
       </c>
       <c r="J561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K561" t="n">
         <v>3</v>
       </c>
       <c r="L561" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M561" t="n">
         <v>0</v>
